--- a/others/materialenliste_Team-C_v2_01-03-2023.xlsx
+++ b/others/materialenliste_Team-C_v2_01-03-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Muller\Documents\GitHub\Gewachshaus\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Gewachshaus\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FE5360-C0DA-4280-8C42-8BF7F5ED0F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D7DCD3-6F9E-4714-869E-2E5E75FF07AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Name:</t>
   </si>
@@ -152,12 +152,6 @@
     <t>DEBO PWR SOLAR1</t>
   </si>
   <si>
-    <t>Raspberry Pi Shield - Display LCD-Touch, 5", 800x480 Pixel</t>
-  </si>
-  <si>
-    <t>RASP PI 5TD WAV</t>
-  </si>
-  <si>
     <t>Kippschalter 16(4)A-250VAC, 1x Ein-Ein, Metallhebel</t>
   </si>
   <si>
@@ -221,10 +215,22 @@
     <t>Gewächshaus - Team C</t>
   </si>
   <si>
-    <t>RASP PI 5 AMOLED</t>
-  </si>
-  <si>
-    <t>Raspberry Pi Shield - Display AMOLED-Touch, 5,5", 1080x1920 Px</t>
+    <t>Raspberry - Display LCD-Touch, 7", IPS</t>
+  </si>
+  <si>
+    <t>RPI LCD 7TD IPS</t>
+  </si>
+  <si>
+    <t>KY-012 Buzzer Modul aktiv</t>
+  </si>
+  <si>
+    <t>4260581558871</t>
+  </si>
+  <si>
+    <t>LED Matrix MAX7219 4x64</t>
+  </si>
+  <si>
+    <t>4260581550509</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1007]"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,15 +277,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,11 +295,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -397,12 +391,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -453,19 +446,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -790,17 +773,17 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="Ansicht1" id="{FEB6E6B8-B94D-4B36-B0A4-822DFCD14F99}">
-    <nsvFilter filterId="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" ref="A4:G31" tableId="2"/>
+    <nsvFilter filterId="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" ref="A4:G32" tableId="2"/>
   </namedSheetView>
   <namedSheetView name="Tabelle1" id="{85323B43-DE71-4969-9B23-612C2177C2C6}">
-    <nsvFilter filterId="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" ref="A4:G31" tableId="2"/>
+    <nsvFilter filterId="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" ref="A4:G32" tableId="2"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" name="Tabelle2" displayName="Tabelle2" ref="A4:G31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A4:G31" xr:uid="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" name="Tabelle2" displayName="Tabelle2" ref="A4:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A4:G32" xr:uid="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EF398944-B0D8-4890-91B4-95F47976D810}" name="Pos." dataDxfId="6">
       <calculatedColumnFormula>IF(B5="","",COUNTA($B$5:B5))</calculatedColumnFormula>
@@ -1106,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -1458,28 +1441,41 @@
         <v>4.9799999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="str">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <f>IF(B16="","",COUNTA($B$5:B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3.49</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(E16*F16)</f>
+        <v>3.49</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f>IF(B17="","",COUNTA($B$5:B17))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>13</v>
@@ -1488,37 +1484,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="12">
-        <v>128.5</v>
+        <v>11.29</v>
       </c>
       <c r="G17" s="13">
         <f>SUM(E17*F17)</f>
-        <v>128.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="str">
         <f>IF(B18="","",COUNTA($B$5:B18))</f>
-        <v>13</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" ref="G18:G30" si="1">SUM(E18*F18)</f>
-        <v>14.8</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -1526,10 +1509,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>13</v>
@@ -1538,36 +1521,36 @@
         <v>1</v>
       </c>
       <c r="F19" s="12">
-        <v>21.95</v>
+        <v>89.95</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="1"/>
-        <v>21.95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+        <f>SUM(E19*F19)</f>
+        <v>89.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <f>IF(B20="","",COUNTA($B$5:B20))</f>
         <v>15</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="32">
-        <v>1</v>
-      </c>
-      <c r="F20" s="33">
-        <v>43.95</v>
-      </c>
-      <c r="G20" s="34">
-        <f t="shared" si="1"/>
-        <v>43.95</v>
+      <c r="B20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" ref="G20:G31" si="1">SUM(E20*F20)</f>
+        <v>14.8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1576,10 +1559,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>13</v>
@@ -1588,11 +1571,11 @@
         <v>1</v>
       </c>
       <c r="F21" s="12">
-        <v>8.99</v>
+        <v>21.95</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="1"/>
-        <v>8.99</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1601,10 +1584,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>13</v>
@@ -1613,11 +1596,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="12">
-        <v>5.8</v>
+        <v>8.99</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,10 +1609,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>13</v>
@@ -1638,11 +1621,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="12">
-        <v>12.9</v>
+        <v>5.8</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
-        <v>12.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,23 +1634,23 @@
         <v>19</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" s="12">
-        <v>0.27</v>
+        <v>12.9</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="1"/>
-        <v>1.08</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1676,23 +1659,23 @@
         <v>20</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="12">
-        <v>3.15</v>
+        <v>0.27</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
-        <v>18.899999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1701,23 +1684,23 @@
         <v>21</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F26" s="12">
-        <v>9.85</v>
+        <v>3.15</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="1"/>
-        <v>9.85</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1726,23 +1709,23 @@
         <v>22</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="12">
-        <v>1.99</v>
+        <v>9.85</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="1"/>
-        <v>7.96</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1751,23 +1734,23 @@
         <v>23</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" s="12">
-        <v>2.2000000000000002</v>
+        <v>1.99</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1776,10 +1759,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>13</v>
@@ -1788,11 +1771,11 @@
         <v>1</v>
       </c>
       <c r="F29" s="12">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,10 +1784,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>13</v>
@@ -1813,31 +1796,56 @@
         <v>1</v>
       </c>
       <c r="F30" s="12">
-        <v>4.0999999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <f>IF(B31="","",COUNTA($B$5:B31))</f>
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
+      <c r="G31" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="23" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F32" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="26">
-        <f>SUM(G5:G30)</f>
-        <v>385.63999999999993</v>
+      <c r="G32" s="26">
+        <f>SUM(G5:G31)</f>
+        <v>317.91999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1856,34 +1864,96 @@
     <hyperlink ref="D13" r:id="rId9" display="https://www.az-delivery.de/products/40-stk-jumper-wire-female-to-male-20-zentimeter?variant=37098560658" xr:uid="{7BA742CE-92D7-419D-AF67-B0754DE8B3ED}"/>
     <hyperlink ref="D14" r:id="rId10" display="https://www.az-delivery.de/products/40-stk-jumper-wire-male-to-male-20-zentimeter" xr:uid="{427DF5A1-E38F-4414-83AE-2560DC1596C9}"/>
     <hyperlink ref="D15" r:id="rId11" display="https://www.az-delivery.de/products/kf-301-relais-modul-mit-low-level-trigger?variant=19481728581728" xr:uid="{D9B6BE22-B452-4FDF-A4D1-AE674F71D698}"/>
-    <hyperlink ref="D18" r:id="rId12" display="https://www.reichelt.de/be-quiet-pure-wings-2-80-mm-bqt-bl044-p142573.html?search=BQT+BL" xr:uid="{5C1516F4-7CC6-4F77-BE4D-762FAC2C9E9E}"/>
-    <hyperlink ref="D19" r:id="rId13" display="https://www.reichelt.de/entwicklerboards-ladegeraet-fuer-li-ion-lipo-akkus-usb-dc-sol-debo-pwr-solar1-p235495.html?search=DEBO+PWR" xr:uid="{1F827B80-860D-42C3-B68D-C4137FD8A0B9}"/>
-    <hyperlink ref="D20" r:id="rId14" xr:uid="{44D9ABB4-87C1-4DF6-94B6-6311166D5E52}"/>
-    <hyperlink ref="D21" r:id="rId15" display="https://www.reichelt.de/kippschalter-16-4-a-250vac-1x-ein-ein-metallhebel-ks-c3910-p105430.html?search=KS+C3910" xr:uid="{A32EE6A6-BE43-42E3-B426-F147C2DA61EA}"/>
-    <hyperlink ref="D22" r:id="rId16" display="https://www.reichelt.de/raspberry-pi-adapter-micro-hdmi-auf-hdmi-1m-schwarz-rpi-m-hdmi-hdmi2-p270099.html?search=m-hdmi" xr:uid="{FADB79FB-F2AD-493A-81F2-EC4D9CB25504}"/>
-    <hyperlink ref="D23" r:id="rId17" display="https://www.reichelt.de/entwicklerboards-neopixel-ring-mit-16-ws2812-rgb-leds-debo-led-np16-p235466.html?search=DEBO+LED+NP" xr:uid="{7DA4BB3E-71B0-4138-8171-843DA11C413E}"/>
-    <hyperlink ref="D24" r:id="rId18" display="https://www.reichelt.de/led-5-mm-bedrahtet-warmweiss-18000-mcd-15--led-5-18000-ww-p163992.html?&amp;trstct=pos_0&amp;nbc=1" xr:uid="{352B29A6-F0DD-4E44-A3DF-7F94E3CAD7A8}"/>
-    <hyperlink ref="D25" r:id="rId19" display="https://www.reichelt.de/entwicklerboards-solarpanel-0-5-w-debo-solar-0-5w-p254385.html?search=DEBO+Solar" xr:uid="{BE9A2EE8-4D2F-41BB-A26B-C5F2B8C5392A}"/>
-    <hyperlink ref="D26" r:id="rId20" display="https://www.reichelt.de/nimh-akku-9-v-block-250-mah-1er-pack-nh-xc-9v-p107288.html?&amp;trstct=pos_3&amp;nbc=1" xr:uid="{F0F4989F-5949-499D-999F-2CAA3B2F5FEF}"/>
-    <hyperlink ref="D27" r:id="rId21" display="https://www.reichelt.de/solar-und-leichtlaufmotor-0-4-5-9-v-solar-90002l-p175933.html?search=SOLAR" xr:uid="{E15FDD10-0F1A-40C2-BDDA-D17EAE4F8DD7}"/>
-    <hyperlink ref="D28" r:id="rId22" display="https://www.reichelt.de/entwicklerboards-ladeplatine-fuer-3-7v-li-akkus-usb-c-1a-debo1-3-7li-1-0a-p291398.html?search=DEBO1" xr:uid="{749375E5-7240-4B30-ACAC-517912A2C210}"/>
-    <hyperlink ref="D29" r:id="rId23" display="https://www.reichelt.de/entwicklerboards-breakout-board-mit-microusb-debo-microusb-p235502.html?search=debo+mi" xr:uid="{3814A4FE-CB37-433E-81E5-F06BF0EDD802}"/>
-    <hyperlink ref="D30" r:id="rId24" display="https://www.reichelt.de/raspberry-pi-micro-usb-power-kabel-rpi-micro-usb-10-p161478.html?search=rpi+micro+usb" xr:uid="{21FC36D5-9315-40ED-BD1E-D1B5D97A7A73}"/>
-    <hyperlink ref="D17" r:id="rId25" display="https://www.reichelt.de/raspberry-pi-shield-display-amoled-touch-5-5-1080x1920-px-rasp-pi-5-amoled-p279990.html?&amp;trstct=pos_0&amp;nbc=1" xr:uid="{F07E8F4E-2C71-46DF-8853-AB2BF98A0AE9}"/>
+    <hyperlink ref="D20" r:id="rId12" display="https://www.reichelt.de/be-quiet-pure-wings-2-80-mm-bqt-bl044-p142573.html?search=BQT+BL" xr:uid="{5C1516F4-7CC6-4F77-BE4D-762FAC2C9E9E}"/>
+    <hyperlink ref="D21" r:id="rId13" display="https://www.reichelt.de/entwicklerboards-ladegeraet-fuer-li-ion-lipo-akkus-usb-dc-sol-debo-pwr-solar1-p235495.html?search=DEBO+PWR" xr:uid="{1F827B80-860D-42C3-B68D-C4137FD8A0B9}"/>
+    <hyperlink ref="D22" r:id="rId14" display="https://www.reichelt.de/kippschalter-16-4-a-250vac-1x-ein-ein-metallhebel-ks-c3910-p105430.html?search=KS+C3910" xr:uid="{A32EE6A6-BE43-42E3-B426-F147C2DA61EA}"/>
+    <hyperlink ref="D23" r:id="rId15" display="https://www.reichelt.de/raspberry-pi-adapter-micro-hdmi-auf-hdmi-1m-schwarz-rpi-m-hdmi-hdmi2-p270099.html?search=m-hdmi" xr:uid="{FADB79FB-F2AD-493A-81F2-EC4D9CB25504}"/>
+    <hyperlink ref="D24" r:id="rId16" display="https://www.reichelt.de/entwicklerboards-neopixel-ring-mit-16-ws2812-rgb-leds-debo-led-np16-p235466.html?search=DEBO+LED+NP" xr:uid="{7DA4BB3E-71B0-4138-8171-843DA11C413E}"/>
+    <hyperlink ref="D25" r:id="rId17" display="https://www.reichelt.de/led-5-mm-bedrahtet-warmweiss-18000-mcd-15--led-5-18000-ww-p163992.html?&amp;trstct=pos_0&amp;nbc=1" xr:uid="{352B29A6-F0DD-4E44-A3DF-7F94E3CAD7A8}"/>
+    <hyperlink ref="D26" r:id="rId18" display="https://www.reichelt.de/entwicklerboards-solarpanel-0-5-w-debo-solar-0-5w-p254385.html?search=DEBO+Solar" xr:uid="{BE9A2EE8-4D2F-41BB-A26B-C5F2B8C5392A}"/>
+    <hyperlink ref="D27" r:id="rId19" display="https://www.reichelt.de/nimh-akku-9-v-block-250-mah-1er-pack-nh-xc-9v-p107288.html?&amp;trstct=pos_3&amp;nbc=1" xr:uid="{F0F4989F-5949-499D-999F-2CAA3B2F5FEF}"/>
+    <hyperlink ref="D28" r:id="rId20" display="https://www.reichelt.de/solar-und-leichtlaufmotor-0-4-5-9-v-solar-90002l-p175933.html?search=SOLAR" xr:uid="{E15FDD10-0F1A-40C2-BDDA-D17EAE4F8DD7}"/>
+    <hyperlink ref="D29" r:id="rId21" display="https://www.reichelt.de/entwicklerboards-ladeplatine-fuer-3-7v-li-akkus-usb-c-1a-debo1-3-7li-1-0a-p291398.html?search=DEBO1" xr:uid="{749375E5-7240-4B30-ACAC-517912A2C210}"/>
+    <hyperlink ref="D30" r:id="rId22" display="https://www.reichelt.de/entwicklerboards-breakout-board-mit-microusb-debo-microusb-p235502.html?search=debo+mi" xr:uid="{3814A4FE-CB37-433E-81E5-F06BF0EDD802}"/>
+    <hyperlink ref="D31" r:id="rId23" display="https://www.reichelt.de/raspberry-pi-micro-usb-power-kabel-rpi-micro-usb-10-p161478.html?search=rpi+micro+usb" xr:uid="{21FC36D5-9315-40ED-BD1E-D1B5D97A7A73}"/>
+    <hyperlink ref="D19" r:id="rId24" display="https://www.reichelt.de/de/en/raspberry-display-lcd-touch-7-ips-rpi-lcd-7td-ips-p317040.html?r=1" xr:uid="{CAA13766-3385-4BD9-B396-3423842CBA68}"/>
+    <hyperlink ref="D16" r:id="rId25" display="https://www.az-delivery.de/products/buzzer-modul-aktiv" xr:uid="{1115F0D9-AE4A-4387-8967-BF4433BC000B}"/>
+    <hyperlink ref="D17" r:id="rId26" display="https://www.az-delivery.de/collections/leds/products/4-x-64er-led-matrix-display" xr:uid="{42A2BA48-4F70-4EB2-83AE-3039EF147617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId27"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;T&amp;C&amp;F&amp;R&amp;D</oddHeader>
   </headerFooter>
-  <drawing r:id="rId27"/>
+  <drawing r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FolderType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Owner xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <AppVersion xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <LMS_Mappings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Math_Settings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <NotebookType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Templates xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <TeamsChannelId xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Student_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Invited_Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <CultureName xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Distribution_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Invited_Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017050FBCF721D74EA191A2597D5F1D5E" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0862e470fa0c0095e2669c6e4a75f78a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cfd14483-b7c0-45b9-993d-9132a74e282d" xmlns:ns4="ff8d2f56-c84d-4871-b762-e5ed0407f39a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b183421cabab6f235163586efe9e3efe" ns3:_="" ns4:_="">
     <xsd:import namespace="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
@@ -2300,68 +2370,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD87B84-825B-439A-B230-2787E5696C25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ff8d2f56-c84d-4871-b762-e5ed0407f39a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FolderType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Owner xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <AppVersion xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <LMS_Mappings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Math_Settings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <NotebookType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Templates xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <TeamsChannelId xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Student_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Invited_Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <CultureName xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Distribution_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Invited_Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B504B-5F24-4A1D-A49E-39A88668BD81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30E27BE0-1DF6-4FBB-BB95-A839F5DAD638}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2378,29 +2412,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B504B-5F24-4A1D-A49E-39A88668BD81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD87B84-825B-439A-B230-2787E5696C25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ff8d2f56-c84d-4871-b762-e5ed0407f39a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/others/materialenliste_Team-C_v2_01-03-2023.xlsx
+++ b/others/materialenliste_Team-C_v2_01-03-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Gewachshaus\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D7DCD3-6F9E-4714-869E-2E5E75FF07AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC9D31-329E-4B46-8D75-2AD4731AC2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,9 +1089,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1881,9 +1884,9 @@
     <hyperlink ref="D17" r:id="rId26" display="https://www.az-delivery.de/collections/leds/products/4-x-64er-led-matrix-display" xr:uid="{42A2BA48-4F70-4EB2-83AE-3039EF147617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId27"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;T&amp;C&amp;F&amp;R&amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;P&amp;C&amp;F&amp;R&amp;D</oddHeader>
   </headerFooter>
   <drawing r:id="rId28"/>
   <tableParts count="1">
@@ -1893,67 +1896,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FolderType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Owner xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <AppVersion xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <LMS_Mappings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Math_Settings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <NotebookType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Templates xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <TeamsChannelId xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Student_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Invited_Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <CultureName xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Distribution_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Invited_Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017050FBCF721D74EA191A2597D5F1D5E" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0862e470fa0c0095e2669c6e4a75f78a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cfd14483-b7c0-45b9-993d-9132a74e282d" xmlns:ns4="ff8d2f56-c84d-4871-b762-e5ed0407f39a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b183421cabab6f235163586efe9e3efe" ns3:_="" ns4:_="">
     <xsd:import namespace="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
@@ -2370,32 +2312,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD87B84-825B-439A-B230-2787E5696C25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ff8d2f56-c84d-4871-b762-e5ed0407f39a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B504B-5F24-4A1D-A49E-39A88668BD81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FolderType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Owner xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <AppVersion xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <LMS_Mappings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Math_Settings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <NotebookType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Templates xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <TeamsChannelId xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Student_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Invited_Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <CultureName xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Distribution_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Invited_Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30E27BE0-1DF6-4FBB-BB95-A839F5DAD638}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2412,4 +2390,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B504B-5F24-4A1D-A49E-39A88668BD81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD87B84-825B-439A-B230-2787E5696C25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ff8d2f56-c84d-4871-b762-e5ed0407f39a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>